--- a/Tests/Validation/Wheat/PalmerstonNorthCE_Obs.xlsx
+++ b/Tests/Validation/Wheat/PalmerstonNorthCE_Obs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B1D305-0C0C-4420-A555-43E411645875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D28D0-B62E-43A9-90D9-0685404B3EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,16 +478,16 @@
     <t>HarvestRipe</t>
   </si>
   <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FinalLeafNumber</t>
-  </si>
-  <si>
     <t>Wheat.Phenology.CAMP.TSHS</t>
   </si>
   <si>
     <t>Wheat.Phenology.CAMP.VSHS</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.HaunStage</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.FinalLeafNumber</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -15479,7 +15479,7 @@
         <v>151</v>
       </c>
       <c r="D1238">
-        <v>9.4285714285714288</v>
+        <v>9.4285714289999998</v>
       </c>
       <c r="F1238">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>151</v>
       </c>
       <c r="D1239">
-        <v>8.9705882352941178</v>
+        <v>8.9705882349999992</v>
       </c>
       <c r="F1239">
         <v>3.3</v>
@@ -15569,7 +15569,7 @@
         <v>151</v>
       </c>
       <c r="D1243">
-        <v>7.9230769230769234</v>
+        <v>7.923076923</v>
       </c>
       <c r="F1243">
         <v>2.5</v>
@@ -15587,7 +15587,7 @@
         <v>151</v>
       </c>
       <c r="D1244">
-        <v>7.9523809523809534</v>
+        <v>7.9523809520000004</v>
       </c>
       <c r="F1244">
         <v>2.5</v>
@@ -15623,7 +15623,7 @@
         <v>151</v>
       </c>
       <c r="D1246">
-        <v>7.7894736842105274</v>
+        <v>7.7894736839999998</v>
       </c>
       <c r="F1246">
         <v>2.5</v>
@@ -15641,7 +15641,7 @@
         <v>151</v>
       </c>
       <c r="D1247">
-        <v>7.6538461538461542</v>
+        <v>7.653846154</v>
       </c>
       <c r="F1247">
         <v>2.5</v>
@@ -15659,7 +15659,7 @@
         <v>151</v>
       </c>
       <c r="D1248">
-        <v>8.9629629629629637</v>
+        <v>8.9629629630000007</v>
       </c>
       <c r="F1248">
         <v>3.5</v>
@@ -15677,7 +15677,7 @@
         <v>151</v>
       </c>
       <c r="D1249">
-        <v>8.8529411764705888</v>
+        <v>8.8529411759999999</v>
       </c>
       <c r="F1249">
         <v>3.5</v>
@@ -15695,7 +15695,7 @@
         <v>151</v>
       </c>
       <c r="D1250">
-        <v>8.9705882352941178</v>
+        <v>8.9705882349999992</v>
       </c>
       <c r="F1250">
         <v>3.9</v>
@@ -15713,7 +15713,7 @@
         <v>151</v>
       </c>
       <c r="D1251">
-        <v>9.3333333333333339</v>
+        <v>9.3333333330000006</v>
       </c>
       <c r="F1251">
         <v>4.4000000000000004</v>
@@ -15731,7 +15731,7 @@
         <v>151</v>
       </c>
       <c r="D1252">
-        <v>10.117647058823531</v>
+        <v>10.117647059999999</v>
       </c>
       <c r="F1252">
         <v>4.5</v>
@@ -15749,7 +15749,7 @@
         <v>151</v>
       </c>
       <c r="D1253">
-        <v>10.388888888888889</v>
+        <v>10.38888889</v>
       </c>
       <c r="F1253">
         <v>4.5</v>
@@ -15839,7 +15839,7 @@
         <v>151</v>
       </c>
       <c r="D1258">
-        <v>9.4074074074074066</v>
+        <v>9.4074074070000009</v>
       </c>
       <c r="F1258">
         <v>3.6</v>
@@ -15857,7 +15857,7 @@
         <v>151</v>
       </c>
       <c r="D1259">
-        <v>9.8965517241379306</v>
+        <v>9.896551724</v>
       </c>
       <c r="F1259">
         <v>3.4</v>
@@ -15875,7 +15875,7 @@
         <v>151</v>
       </c>
       <c r="D1260">
-        <v>9.1111111111111107</v>
+        <v>9.1111111109999996</v>
       </c>
       <c r="F1260">
         <v>3.2</v>
@@ -15893,7 +15893,7 @@
         <v>151</v>
       </c>
       <c r="D1261">
-        <v>9.0370370370370363</v>
+        <v>9.0370370369999993</v>
       </c>
       <c r="F1261">
         <v>3</v>
@@ -15911,7 +15911,7 @@
         <v>151</v>
       </c>
       <c r="D1262">
-        <v>9.0740740740740744</v>
+        <v>9.0740740740000003</v>
       </c>
       <c r="F1262">
         <v>3</v>
@@ -15929,7 +15929,7 @@
         <v>151</v>
       </c>
       <c r="D1263">
-        <v>8.8888888888888893</v>
+        <v>8.8888888890000004</v>
       </c>
       <c r="F1263">
         <v>3</v>
@@ -15947,7 +15947,7 @@
         <v>151</v>
       </c>
       <c r="D1264">
-        <v>9.0857142857142854</v>
+        <v>9.085714286</v>
       </c>
       <c r="F1264">
         <v>3</v>
@@ -15983,7 +15983,7 @@
         <v>151</v>
       </c>
       <c r="D1266">
-        <v>8.6666666666666661</v>
+        <v>8.6666666669999994</v>
       </c>
       <c r="F1266">
         <v>3</v>
@@ -16001,7 +16001,7 @@
         <v>151</v>
       </c>
       <c r="D1267">
-        <v>8.8333333333333339</v>
+        <v>8.8333333330000006</v>
       </c>
       <c r="F1267">
         <v>3</v>
@@ -16019,7 +16019,7 @@
         <v>151</v>
       </c>
       <c r="D1268">
-        <v>9.1785714285714288</v>
+        <v>9.1785714289999998</v>
       </c>
       <c r="F1268">
         <v>3.6</v>
@@ -16037,7 +16037,7 @@
         <v>151</v>
       </c>
       <c r="D1269">
-        <v>9.8518518518518512</v>
+        <v>9.8518518519999994</v>
       </c>
       <c r="F1269">
         <v>4</v>
@@ -16055,7 +16055,7 @@
         <v>151</v>
       </c>
       <c r="D1270">
-        <v>10.09090909090909</v>
+        <v>10.09090909</v>
       </c>
       <c r="F1270">
         <v>4.5</v>
@@ -16073,7 +16073,7 @@
         <v>151</v>
       </c>
       <c r="D1271">
-        <v>11.058823529411759</v>
+        <v>11.05882353</v>
       </c>
       <c r="F1271">
         <v>4.5</v>
@@ -16091,7 +16091,7 @@
         <v>151</v>
       </c>
       <c r="D1272">
-        <v>11.34615384615385</v>
+        <v>11.34615385</v>
       </c>
       <c r="F1272">
         <v>4.5</v>
@@ -16109,7 +16109,7 @@
         <v>151</v>
       </c>
       <c r="D1273">
-        <v>12.76470588235294</v>
+        <v>12.764705879999999</v>
       </c>
       <c r="F1273">
         <v>4.5</v>
@@ -16127,7 +16127,7 @@
         <v>151</v>
       </c>
       <c r="D1274">
-        <v>13.16666666666667</v>
+        <v>13.16666667</v>
       </c>
       <c r="F1274">
         <v>4.5</v>
@@ -16217,7 +16217,7 @@
         <v>151</v>
       </c>
       <c r="D1279">
-        <v>8.1944444444444446</v>
+        <v>8.1944444440000002</v>
       </c>
       <c r="F1279">
         <v>3.3</v>
@@ -16253,7 +16253,7 @@
         <v>151</v>
       </c>
       <c r="D1281">
-        <v>8.2702702702702702</v>
+        <v>8.2702702699999993</v>
       </c>
       <c r="F1281">
         <v>3</v>
@@ -16289,7 +16289,7 @@
         <v>151</v>
       </c>
       <c r="D1283">
-        <v>7.975609756097561</v>
+        <v>7.9756097559999999</v>
       </c>
       <c r="F1283">
         <v>2.5</v>
@@ -16322,7 +16322,7 @@
         <v>151</v>
       </c>
       <c r="D1285">
-        <v>7.9459459459459456</v>
+        <v>7.9459459460000001</v>
       </c>
       <c r="F1285">
         <v>2.5</v>
@@ -16340,7 +16340,7 @@
         <v>151</v>
       </c>
       <c r="D1286">
-        <v>7.9459459459459456</v>
+        <v>7.9459459460000001</v>
       </c>
       <c r="F1286">
         <v>2.5</v>
@@ -16358,7 +16358,7 @@
         <v>151</v>
       </c>
       <c r="D1287">
-        <v>8.0540540540540544</v>
+        <v>8.0540540539999999</v>
       </c>
       <c r="F1287">
         <v>2.5</v>
@@ -16376,7 +16376,7 @@
         <v>151</v>
       </c>
       <c r="D1288">
-        <v>7.756756756756757</v>
+        <v>7.7567567569999998</v>
       </c>
       <c r="F1288">
         <v>2.5</v>
@@ -16394,7 +16394,7 @@
         <v>151</v>
       </c>
       <c r="D1289">
-        <v>7.9729729729729728</v>
+        <v>7.9729729730000001</v>
       </c>
       <c r="F1289">
         <v>2.5</v>
@@ -16466,7 +16466,7 @@
         <v>151</v>
       </c>
       <c r="D1293">
-        <v>8.882352941176471</v>
+        <v>8.8823529410000006</v>
       </c>
       <c r="F1293">
         <v>3.5</v>
@@ -16529,7 +16529,7 @@
         <v>151</v>
       </c>
       <c r="D1297">
-        <v>7.7714285714285714</v>
+        <v>7.7714285710000004</v>
       </c>
       <c r="F1297">
         <v>2.6</v>
@@ -16547,7 +16547,7 @@
         <v>151</v>
       </c>
       <c r="D1298">
-        <v>7.5641025641025639</v>
+        <v>7.5641025639999997</v>
       </c>
       <c r="F1298">
         <v>2.2999999999999998</v>
@@ -16637,7 +16637,7 @@
         <v>151</v>
       </c>
       <c r="D1303">
-        <v>7.1333333333333337</v>
+        <v>7.1333333330000004</v>
       </c>
       <c r="F1303">
         <v>2.2999999999999998</v>
@@ -16673,7 +16673,7 @@
         <v>151</v>
       </c>
       <c r="D1305">
-        <v>7.9629629629629628</v>
+        <v>7.9629629629999998</v>
       </c>
       <c r="F1305">
         <v>2.7</v>
@@ -16691,7 +16691,7 @@
         <v>151</v>
       </c>
       <c r="D1306">
-        <v>8.0322580645161299</v>
+        <v>8.0322580650000006</v>
       </c>
       <c r="F1306">
         <v>3</v>
@@ -16799,7 +16799,7 @@
         <v>151</v>
       </c>
       <c r="D1312">
-        <v>18.857142857142861</v>
+        <v>18.85714286</v>
       </c>
       <c r="L1312" s="1"/>
     </row>
@@ -16835,7 +16835,7 @@
         <v>151</v>
       </c>
       <c r="D1315">
-        <v>18.833333333333329</v>
+        <v>18.833333329999999</v>
       </c>
       <c r="L1315" s="1"/>
     </row>
@@ -16883,7 +16883,7 @@
         <v>151</v>
       </c>
       <c r="D1319">
-        <v>12.52380952380952</v>
+        <v>12.52380952</v>
       </c>
       <c r="F1319">
         <v>6</v>
@@ -16901,7 +16901,7 @@
         <v>151</v>
       </c>
       <c r="D1320">
-        <v>12.571428571428569</v>
+        <v>12.57142857</v>
       </c>
       <c r="F1320">
         <v>6.5</v>
@@ -17000,7 +17000,7 @@
         <v>151</v>
       </c>
       <c r="D1327">
-        <v>11.058823529411759</v>
+        <v>11.05882353</v>
       </c>
       <c r="F1327">
         <v>6</v>
@@ -17018,7 +17018,7 @@
         <v>151</v>
       </c>
       <c r="D1328">
-        <v>11.03225806451613</v>
+        <v>11.03225806</v>
       </c>
       <c r="F1328">
         <v>5.7</v>
@@ -17114,7 +17114,7 @@
         <v>151</v>
       </c>
       <c r="D1334">
-        <v>18.63636363636364</v>
+        <v>18.636363639999999</v>
       </c>
       <c r="L1334" s="1"/>
     </row>
@@ -17126,7 +17126,7 @@
         <v>151</v>
       </c>
       <c r="D1335">
-        <v>18.444444444444439</v>
+        <v>18.444444440000002</v>
       </c>
       <c r="L1335" s="1"/>
     </row>
@@ -17150,7 +17150,7 @@
         <v>151</v>
       </c>
       <c r="D1337">
-        <v>19.09090909090909</v>
+        <v>19.09090909</v>
       </c>
       <c r="L1337" s="1"/>
     </row>
@@ -17174,7 +17174,7 @@
         <v>151</v>
       </c>
       <c r="D1339">
-        <v>14.54545454545454</v>
+        <v>14.545454550000001</v>
       </c>
       <c r="L1339" s="1"/>
     </row>
@@ -17204,7 +17204,7 @@
         <v>151</v>
       </c>
       <c r="D1341">
-        <v>9.8181818181818183</v>
+        <v>9.8181818179999993</v>
       </c>
       <c r="F1341">
         <v>4.5</v>
@@ -17222,7 +17222,7 @@
         <v>151</v>
       </c>
       <c r="D1342">
-        <v>18.666666666666671</v>
+        <v>18.666666670000001</v>
       </c>
       <c r="L1342" s="1"/>
     </row>
@@ -17246,7 +17246,7 @@
         <v>151</v>
       </c>
       <c r="D1344">
-        <v>16.555555555555561</v>
+        <v>16.555555559999998</v>
       </c>
       <c r="L1344" s="1"/>
     </row>
@@ -17288,7 +17288,7 @@
         <v>151</v>
       </c>
       <c r="D1347">
-        <v>15.72727272727273</v>
+        <v>15.727272729999999</v>
       </c>
       <c r="F1347">
         <v>8.8000000000000007</v>
@@ -17306,7 +17306,7 @@
         <v>151</v>
       </c>
       <c r="D1348">
-        <v>15.91666666666667</v>
+        <v>15.91666667</v>
       </c>
       <c r="F1348">
         <v>9.1</v>
@@ -17324,7 +17324,7 @@
         <v>151</v>
       </c>
       <c r="D1349">
-        <v>16.666666666666671</v>
+        <v>16.666666670000001</v>
       </c>
       <c r="F1349">
         <v>9.4</v>
@@ -17354,7 +17354,7 @@
         <v>151</v>
       </c>
       <c r="D1351">
-        <v>20.18181818181818</v>
+        <v>20.18181818</v>
       </c>
       <c r="L1351" s="1"/>
     </row>
@@ -17366,7 +17366,7 @@
         <v>151</v>
       </c>
       <c r="D1352">
-        <v>19.333333333333329</v>
+        <v>19.333333329999999</v>
       </c>
       <c r="L1352" s="1"/>
     </row>
@@ -17378,7 +17378,7 @@
         <v>151</v>
       </c>
       <c r="D1353">
-        <v>18.81818181818182</v>
+        <v>18.81818182</v>
       </c>
       <c r="L1353" s="1"/>
     </row>
@@ -17426,7 +17426,7 @@
         <v>151</v>
       </c>
       <c r="D1356">
-        <v>8.5357142857142865</v>
+        <v>8.5357142859999993</v>
       </c>
       <c r="F1356">
         <v>3.2</v>
@@ -17444,7 +17444,7 @@
         <v>151</v>
       </c>
       <c r="D1357">
-        <v>8.1428571428571423</v>
+        <v>8.1428571430000005</v>
       </c>
       <c r="F1357">
         <v>2.5</v>
@@ -17525,7 +17525,7 @@
         <v>151</v>
       </c>
       <c r="D1363">
-        <v>14.22222222222222</v>
+        <v>14.222222220000001</v>
       </c>
       <c r="L1363" s="1"/>
     </row>
@@ -17573,7 +17573,7 @@
         <v>151</v>
       </c>
       <c r="D1366">
-        <v>8.4090909090909083</v>
+        <v>8.4090909089999997</v>
       </c>
       <c r="F1366">
         <v>3.5</v>
@@ -17636,7 +17636,7 @@
         <v>151</v>
       </c>
       <c r="D1370">
-        <v>18.434782608695649</v>
+        <v>18.434782609999999</v>
       </c>
       <c r="L1370" s="1"/>
     </row>
@@ -17648,7 +17648,7 @@
         <v>151</v>
       </c>
       <c r="D1371">
-        <v>16.36363636363636</v>
+        <v>16.363636360000001</v>
       </c>
       <c r="L1371" s="1"/>
     </row>
@@ -17660,7 +17660,7 @@
         <v>151</v>
       </c>
       <c r="D1372">
-        <v>10.111111111111111</v>
+        <v>10.11111111</v>
       </c>
       <c r="F1372">
         <v>5.5</v>
@@ -17732,7 +17732,7 @@
         <v>151</v>
       </c>
       <c r="D1376">
-        <v>8.7857142857142865</v>
+        <v>8.7857142859999993</v>
       </c>
       <c r="F1376">
         <v>3</v>
@@ -17783,7 +17783,7 @@
         <v>151</v>
       </c>
       <c r="D1379">
-        <v>13.86046511627907</v>
+        <v>13.860465120000001</v>
       </c>
       <c r="F1379">
         <v>7.3</v>
@@ -17801,7 +17801,7 @@
         <v>151</v>
       </c>
       <c r="D1380">
-        <v>9.235294117647058</v>
+        <v>9.2352941180000006</v>
       </c>
       <c r="F1380">
         <v>4.3</v>
@@ -17819,7 +17819,7 @@
         <v>151</v>
       </c>
       <c r="D1381">
-        <v>9.0666666666666664</v>
+        <v>9.0666666669999998</v>
       </c>
       <c r="F1381">
         <v>4.2</v>
@@ -17837,7 +17837,7 @@
         <v>151</v>
       </c>
       <c r="D1382">
-        <v>8.9473684210526319</v>
+        <v>8.9473684210000002</v>
       </c>
       <c r="F1382">
         <v>4</v>
@@ -17873,7 +17873,7 @@
         <v>151</v>
       </c>
       <c r="D1384">
-        <v>9.6111111111111107</v>
+        <v>9.6111111109999996</v>
       </c>
       <c r="F1384">
         <v>3.7</v>
